--- a/va_facility_data_2025-02-20/St. Charles County VA Clinic - Facility Data.xlsx"; filename*=UTF-8''St.%20Charles%20County%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/St. Charles County VA Clinic - Facility Data.xlsx"; filename*=UTF-8''St.%20Charles%20County%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R9fe00bd0c50b4aa19426f98a62062e6b"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R846941d1b5fa45939b0850500d040c8d"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R7f7c372a7e76422d8fc74192e93327a3"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rff151cdcd06143a7bcb9aa97369b9f71"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R6c80ed4ebda14763bcf4b4aa66b16fd6"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R8d7d7b572f8c4f6387de881187c08bea"/>
   </x:sheets>
 </x:workbook>
 </file>
